--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3647458.65039635</v>
+        <v>3643446.040382357</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7625610.529198848</v>
+        <v>7625610.529198847</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2102622465528</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>114.4918089738211</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646375</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247745</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>102.5227273220993</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>238.1138357058005</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>78.29684714663982</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>9.858893720076635</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>135.8126782397845</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>127.3385186497848</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>188.810869034085</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>181.2290365055931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>12.40418031676379</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>14.74106137621237</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="W13" t="n">
-        <v>146.0764391540986</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,10 +1663,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.8112368377021</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.3062202753129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012179</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>34.67929910923502</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.92158678358063</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>120.1447214650588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>142.5631989720291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>57.28101103997132</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>282.5175658501401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.799772605719657</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187896</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03048557919269</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>164.9367233701398</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>60.25690685266579</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591601078694</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C2" t="n">
-        <v>916.6290841382827</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>916.6290841382827</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118628</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.191441142816</v>
+        <v>1582.86133602681</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064548</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.187066270882</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>320.187066270882</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>170.0704268585463</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>170.0704268585463</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>170.0704268585463</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452385</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>320.187066270882</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>320.187066270882</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W4" t="n">
-        <v>320.187066270882</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X4" t="n">
-        <v>320.187066270882</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>320.187066270882</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.277735635578</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>916.3152186951659</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>187.59673958326</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4609,10 +4609,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.016907675511</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1671.877575699699</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>537.5777512993837</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W7" t="n">
-        <v>248.1605812624231</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X7" t="n">
-        <v>248.1605812624231</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>666.2025176122977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958762</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697682</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697682</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>684.2304294016378</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>684.2304294016378</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>692.8974549201677</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,25 +5120,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.195110654903</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="14">
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,16 +5299,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>734.6461798836013</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>584.5295404712656</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6164468888725</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>436.6164468888725</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385794</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557015</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.838905772774</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3278.063798229819</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3905.661761784426</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.571492023713</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023713</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.294644713842</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273912</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273912</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>590.909656468498</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649657</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888944</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811342</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532271</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408912</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408912</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2125.28631979577</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589883</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.184661552922</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654904</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551879</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004717</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168646</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362721</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797515</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192923</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111748</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107584</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466578</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123007</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852893</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591813</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866616001</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273909</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798835991</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>565.7099969556921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>417.7969033732988</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.528494205774</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138389</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9926444679666</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>700.7543264856228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.195370459393</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>882.4027913158625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000581</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192923</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111748</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107584</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232831</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408901</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199804</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199804</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162843</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.833967264826</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.041388121296</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3602.972384395806</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4230.570347950413</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>154.6822255254121</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="W13" t="n">
-        <v>140.4465591824924</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>47.7129014545667</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.5257599066244</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>251.5051752800093</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>130.4994612393508</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.870763674540086</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>194.8566322838567</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>4.0054324864509</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>144.6341900408494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.8014946027445</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>105.2672314396031</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660355.9349123003</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660355.9349123007</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710686</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.405192951002392e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687952</v>
-      </c>
       <c r="I4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26447,13 +26447,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="M4" t="n">
-        <v>15436.64000687972</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219695</v>
+        <v>-750285.7490219694</v>
       </c>
       <c r="C6" t="n">
         <v>578458.9967056228</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056228</v>
       </c>
       <c r="E6" t="n">
-        <v>324817.6380673639</v>
+        <v>324470.2588130067</v>
       </c>
       <c r="F6" t="n">
-        <v>650230.0998747189</v>
+        <v>649882.7206203622</v>
       </c>
       <c r="G6" t="n">
-        <v>650230.0998747186</v>
+        <v>649882.7206203622</v>
       </c>
       <c r="H6" t="n">
-        <v>650230.0998747193</v>
+        <v>649882.7206203617</v>
       </c>
       <c r="I6" t="n">
-        <v>650230.0998747195</v>
+        <v>649882.7206203622</v>
       </c>
       <c r="J6" t="n">
-        <v>432698.8974774416</v>
+        <v>432351.5182230845</v>
       </c>
       <c r="K6" t="n">
-        <v>650230.099874719</v>
+        <v>649882.7206203619</v>
       </c>
       <c r="L6" t="n">
-        <v>650230.0998747189</v>
+        <v>649882.7206203622</v>
       </c>
       <c r="M6" t="n">
-        <v>565175.0719392074</v>
+        <v>564827.69268485</v>
       </c>
       <c r="N6" t="n">
-        <v>650230.0998747193</v>
+        <v>649882.7206203621</v>
       </c>
       <c r="O6" t="n">
-        <v>650230.099874719</v>
+        <v>649882.720620362</v>
       </c>
       <c r="P6" t="n">
-        <v>650230.0998747192</v>
+        <v>649882.7206203621</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>252.7201078257089</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>271.7461296822325</v>
       </c>
     </row>
     <row r="3">
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>63.50308093692897</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>14.02380761802752</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>332.6248785068136</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>359.8722069583924</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>12.80279477842788</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>62.43050668165709</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>218.0651767076264</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>168.0119322118199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>167.4277998651735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>271.4707768294005</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.804778548830654e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-1.463036589392737e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.522591576628786e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30285,10 +30285,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.522591576628786e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>509.0826837242976</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>640.2652944187043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>361.5531172119631</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697148</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,28 +33262,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>253.8670488165992</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33429,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>209.7242506524599</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>539.0475940357389</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067264</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>538.5853835133119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>377.7409716409642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1312604966861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>219.4190832899448</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553845</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36296,10 +36296,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>127.0294221499325</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>82.88662398579324</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>396.4513495912944</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236320508</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>396.4513495912935</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3643446.040382357</v>
+        <v>3645206.570685144</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>75.45713216103655</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.4918089738211</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.31548816222207</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>238.1138357058005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>110.1157992952066</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>78.29684714663982</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>135.8126782397845</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>60.16890147207355</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>188.810869034085</v>
+        <v>297.998630822261</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.40418031676379</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>149.1816830357536</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634789</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712566</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>46.29306638367343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310236</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>29.9590012402371</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V31" t="n">
-        <v>57.28101103997132</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1582.86133602681</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1582.86133602681</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>680.3679798527295</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>680.3679798527295</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X4" t="n">
-        <v>680.3679798527295</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.3679798527295</v>
+        <v>376.7853475753374</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939214</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>194.5422403324635</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="E5" t="n">
-        <v>194.5422403324635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>187.59673958326</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.2025176122977</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C7" t="n">
-        <v>666.2025176122977</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>860.1103376645752</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122977</v>
+        <v>860.1103376645752</v>
       </c>
       <c r="W7" t="n">
-        <v>666.2025176122977</v>
+        <v>860.1103376645752</v>
       </c>
       <c r="X7" t="n">
-        <v>666.2025176122977</v>
+        <v>860.1103376645752</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.2025176122977</v>
+        <v>860.1103376645752</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F8" t="n">
         <v>77.54416254678289</v>
@@ -4804,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4986,28 +4986,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201677</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201677</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468466</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>983.3556038098228</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>814.4194208819159</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>664.3027814695802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>516.3896878871871</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892767</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908938</v>
@@ -5667,58 +5667,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2416.701466165879</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2233.846631820783</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2014.245166843724</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192804</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111734</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
         <v>402.7245934908939</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1630.526246743624</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.109076706663</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.119525808646</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,37 +7332,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7399,43 +7399,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7666,34 +7666,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>72.11969353038806</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1584408891665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>36.41624546988461</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194314</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V31" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710688</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710686</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073544</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687977</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687977</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687973</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26447,7 +26447,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26456,7 +26456,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219694</v>
+        <v>-750285.7490219695</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056228</v>
+        <v>578458.996705623</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056228</v>
+        <v>578458.996705623</v>
       </c>
       <c r="E6" t="n">
-        <v>324470.2588130067</v>
+        <v>324782.9001419292</v>
       </c>
       <c r="F6" t="n">
-        <v>649882.7206203622</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="G6" t="n">
-        <v>649882.7206203622</v>
+        <v>650195.3619492835</v>
       </c>
       <c r="H6" t="n">
-        <v>649882.7206203617</v>
+        <v>650195.3619492837</v>
       </c>
       <c r="I6" t="n">
-        <v>649882.7206203622</v>
+        <v>650195.3619492833</v>
       </c>
       <c r="J6" t="n">
-        <v>432351.5182230845</v>
+        <v>432664.1595520061</v>
       </c>
       <c r="K6" t="n">
-        <v>649882.7206203619</v>
+        <v>650195.3619492836</v>
       </c>
       <c r="L6" t="n">
-        <v>649882.7206203622</v>
+        <v>650195.3619492837</v>
       </c>
       <c r="M6" t="n">
-        <v>564827.69268485</v>
+        <v>565140.3340137717</v>
       </c>
       <c r="N6" t="n">
-        <v>649882.7206203621</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="O6" t="n">
-        <v>649882.720620362</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="P6" t="n">
-        <v>649882.7206203621</v>
+        <v>650195.361949283</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,16 +26746,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,14 +26965,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483748</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>307.276709502444</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.7461296822325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.2999848559903</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>14.02380761802752</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>271.8145707770552</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>332.6248785068136</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>12.80279477842788</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>226.0429367335393</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076264</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.4277998651735</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>40.58734229568833</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.672078567559044e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912058</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067253</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691875</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319374</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
